--- a/Barrule_fixed/NLP_007_round2/antfarm_firstLevel_left_start_NLP_previous/stats.xlsx
+++ b/Barrule_fixed/NLP_007_round2/antfarm_firstLevel_left_start_NLP_previous/stats.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="26970" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,6 +19,30 @@
     <t>2 Step LookAhaed</t>
   </si>
   <si>
+    <t>3 Step LookAhaed</t>
+  </si>
+  <si>
+    <t>4 Step LookAhaed</t>
+  </si>
+  <si>
+    <t>5 Step LookAhaed</t>
+  </si>
+  <si>
+    <t>6 Step LookAhaed</t>
+  </si>
+  <si>
+    <t>7 Step LookAhaed</t>
+  </si>
+  <si>
+    <t>8 Step LookAhaed</t>
+  </si>
+  <si>
+    <t>9 Step LookAhaed</t>
+  </si>
+  <si>
+    <t>10 Step LookAhaed</t>
+  </si>
+  <si>
     <t>0 Trial</t>
   </si>
   <si>
@@ -104,54 +128,373 @@
   </si>
   <si>
     <t>Terminal Z</t>
-  </si>
-  <si>
-    <t>3 Step LookAhaed</t>
-  </si>
-  <si>
-    <t>4 Step LookAhaed</t>
-  </si>
-  <si>
-    <t>5 Step LookAhaed</t>
-  </si>
-  <si>
-    <t>6 Step LookAhaed</t>
-  </si>
-  <si>
-    <t>7 Step LookAhaed</t>
-  </si>
-  <si>
-    <t>8 Step LookAhaed</t>
-  </si>
-  <si>
-    <t>9 Step LookAhaed</t>
-  </si>
-  <si>
-    <t>10 Step LookAhaed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,18 +502,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -290,7 +927,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -311,9 +948,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -334,7 +971,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -404,7 +1041,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -430,7 +1067,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -453,133 +1090,138 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BE29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="G1:BE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ36" sqref="AQ36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="43" max="43" width="12.625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="7:57">
+    <row r="1" spans="7:55">
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="AE1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AK1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AQ1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="AW1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="BC1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="7:57">
       <c r="G3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AQ3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BE3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="7:57">
       <c r="G4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>7.16574</v>
@@ -588,7 +1230,7 @@
         <v>7.629</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>29.91904</v>
@@ -597,7 +1239,7 @@
         <v>30.358</v>
       </c>
       <c r="S4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T4">
         <v>34.68684</v>
@@ -606,7 +1248,7 @@
         <v>35.111</v>
       </c>
       <c r="Y4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Z4">
         <v>121.25999</v>
@@ -615,16 +1257,16 @@
         <v>121.65</v>
       </c>
       <c r="AE4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AF4">
         <v>84.83559</v>
       </c>
       <c r="AG4">
-        <v>85.20999999999999</v>
+        <v>85.21</v>
       </c>
       <c r="AK4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AL4">
         <v>74.61615</v>
@@ -633,7 +1275,7 @@
         <v>74.985</v>
       </c>
       <c r="AQ4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AR4">
         <v>102.74841</v>
@@ -642,7 +1284,7 @@
         <v>103.1</v>
       </c>
       <c r="AW4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AX4">
         <v>292.44254</v>
@@ -651,7 +1293,7 @@
         <v>292.75</v>
       </c>
       <c r="BC4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD4">
         <v>588.41779</v>
@@ -662,7 +1304,7 @@
     </row>
     <row r="5" spans="7:57">
       <c r="G5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>0.95951</v>
@@ -671,7 +1313,7 @@
         <v>1.1991</v>
       </c>
       <c r="M5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1.42794</v>
@@ -680,7 +1322,7 @@
         <v>1.6564</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T5">
         <v>18.62429</v>
@@ -689,7 +1331,7 @@
         <v>18.844</v>
       </c>
       <c r="Y5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Z5">
         <v>97.09945</v>
@@ -698,16 +1340,16 @@
         <v>97.304</v>
       </c>
       <c r="AE5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AF5">
-        <v>67.10084999999999</v>
+        <v>67.10085</v>
       </c>
       <c r="AG5">
         <v>67.339</v>
       </c>
       <c r="AK5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AL5">
         <v>51.33192</v>
@@ -716,7 +1358,7 @@
         <v>51.523</v>
       </c>
       <c r="AQ5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AR5">
         <v>149.68665</v>
@@ -725,16 +1367,16 @@
         <v>149.86</v>
       </c>
       <c r="AW5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AX5">
-        <v>67.94293999999999</v>
+        <v>67.94294</v>
       </c>
       <c r="AY5">
         <v>68.105</v>
       </c>
       <c r="BC5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD5">
         <v>385.44421</v>
@@ -745,16 +1387,16 @@
     </row>
     <row r="6" spans="7:57">
       <c r="G6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>0.5021600000000001</v>
+        <v>0.50216</v>
       </c>
       <c r="I6">
         <v>0.743</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N6">
         <v>9.29172</v>
@@ -763,7 +1405,7 @@
         <v>9.52</v>
       </c>
       <c r="S6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T6">
         <v>2.0643</v>
@@ -772,7 +1414,7 @@
         <v>2.2892</v>
       </c>
       <c r="Y6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Z6">
         <v>2.36803</v>
@@ -781,7 +1423,7 @@
         <v>2.5806</v>
       </c>
       <c r="AE6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AF6">
         <v>4.92449</v>
@@ -790,7 +1432,7 @@
         <v>5.11</v>
       </c>
       <c r="AK6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AL6">
         <v>16.31065</v>
@@ -799,7 +1441,7 @@
         <v>16.498</v>
       </c>
       <c r="AQ6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AR6">
         <v>8.60285</v>
@@ -808,16 +1450,16 @@
         <v>8.84</v>
       </c>
       <c r="AW6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AX6">
         <v>8.65817</v>
       </c>
       <c r="AY6">
-        <v>8.885199999999999</v>
+        <v>8.8852</v>
       </c>
       <c r="BC6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD6">
         <v>13.97606</v>
@@ -828,7 +1470,7 @@
     </row>
     <row r="7" spans="7:57">
       <c r="G7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>1.18999</v>
@@ -837,7 +1479,7 @@
         <v>1.4293</v>
       </c>
       <c r="M7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1.64785</v>
@@ -846,7 +1488,7 @@
         <v>1.8745</v>
       </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T7">
         <v>1.92049</v>
@@ -855,7 +1497,7 @@
         <v>2.1427</v>
       </c>
       <c r="Y7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z7">
         <v>4.17512</v>
@@ -864,16 +1506,16 @@
         <v>4.3873</v>
       </c>
       <c r="AE7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AF7">
-        <v>9.425409999999999</v>
+        <v>9.42541</v>
       </c>
       <c r="AG7">
         <v>9.6274</v>
       </c>
       <c r="AK7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AL7">
         <v>10.03327</v>
@@ -882,7 +1524,7 @@
         <v>10.225</v>
       </c>
       <c r="AQ7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AR7">
         <v>5.77284</v>
@@ -891,7 +1533,7 @@
         <v>6.0095</v>
       </c>
       <c r="AW7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AX7">
         <v>14.78274</v>
@@ -900,18 +1542,18 @@
         <v>14.944</v>
       </c>
       <c r="BC7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD7">
-        <v>9.389849999999999</v>
+        <v>9.38985</v>
       </c>
       <c r="BE7">
-        <v>9.552899999999999</v>
+        <v>9.5529</v>
       </c>
     </row>
     <row r="8" spans="7:57">
       <c r="G8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>0.90863</v>
@@ -920,7 +1562,7 @@
         <v>1.1485</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1.36787</v>
@@ -929,7 +1571,7 @@
         <v>1.5983</v>
       </c>
       <c r="S8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T8">
         <v>2.59508</v>
@@ -938,7 +1580,7 @@
         <v>2.8167</v>
       </c>
       <c r="Y8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z8">
         <v>16.37835</v>
@@ -947,7 +1589,7 @@
         <v>16.589</v>
       </c>
       <c r="AE8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AF8">
         <v>3.5488</v>
@@ -956,16 +1598,16 @@
         <v>3.7499</v>
       </c>
       <c r="AK8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AL8">
         <v>8.9223</v>
       </c>
       <c r="AM8">
-        <v>9.114000000000001</v>
+        <v>9.114</v>
       </c>
       <c r="AQ8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AR8">
         <v>12.51391</v>
@@ -974,7 +1616,7 @@
         <v>12.748</v>
       </c>
       <c r="AW8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AX8">
         <v>10.39875</v>
@@ -983,7 +1625,7 @@
         <v>10.571</v>
       </c>
       <c r="BC8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD8">
         <v>7.73863</v>
@@ -994,7 +1636,7 @@
     </row>
     <row r="9" spans="7:57">
       <c r="G9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>0.72606</v>
@@ -1003,7 +1645,7 @@
         <v>0.966</v>
       </c>
       <c r="M9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1.27629</v>
@@ -1012,7 +1654,7 @@
         <v>1.5067</v>
       </c>
       <c r="S9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T9">
         <v>5.93263</v>
@@ -1021,7 +1663,7 @@
         <v>6.1517</v>
       </c>
       <c r="Y9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z9">
         <v>3.29365</v>
@@ -1030,7 +1672,7 @@
         <v>3.5039</v>
       </c>
       <c r="AE9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AF9">
         <v>4.73404</v>
@@ -1039,7 +1681,7 @@
         <v>4.9317</v>
       </c>
       <c r="AK9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AL9">
         <v>5.35509</v>
@@ -1048,7 +1690,7 @@
         <v>5.5455</v>
       </c>
       <c r="AQ9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AR9">
         <v>9.19134</v>
@@ -1057,16 +1699,16 @@
         <v>9.4284</v>
       </c>
       <c r="AW9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AX9">
-        <v>8.429410000000001</v>
+        <v>8.42941</v>
       </c>
       <c r="AY9">
-        <v>8.601100000000001</v>
+        <v>8.6011</v>
       </c>
       <c r="BC9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BD9">
         <v>5.59027</v>
@@ -1077,7 +1719,7 @@
     </row>
     <row r="10" spans="7:57">
       <c r="G10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>0.58796</v>
@@ -1086,7 +1728,7 @@
         <v>0.8276</v>
       </c>
       <c r="M10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>6.2141</v>
@@ -1095,7 +1737,7 @@
         <v>6.4441</v>
       </c>
       <c r="S10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T10">
         <v>3.64686</v>
@@ -1104,7 +1746,7 @@
         <v>3.8682</v>
       </c>
       <c r="Y10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Z10">
         <v>2.49594</v>
@@ -1113,7 +1755,7 @@
         <v>2.7043</v>
       </c>
       <c r="AE10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AF10">
         <v>3.62924</v>
@@ -1122,7 +1764,7 @@
         <v>3.8261</v>
       </c>
       <c r="AK10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AL10">
         <v>5.21024</v>
@@ -1131,7 +1773,7 @@
         <v>5.4096</v>
       </c>
       <c r="AQ10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AR10">
         <v>6.83383</v>
@@ -1140,16 +1782,16 @@
         <v>7.0691</v>
       </c>
       <c r="AW10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AX10">
-        <v>8.468730000000001</v>
+        <v>8.46873</v>
       </c>
       <c r="AY10">
-        <v>8.640599999999999</v>
+        <v>8.6406</v>
       </c>
       <c r="BC10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BD10">
         <v>9.72054</v>
@@ -1160,7 +1802,7 @@
     </row>
     <row r="11" spans="7:57">
       <c r="G11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>0.94194</v>
@@ -1169,7 +1811,7 @@
         <v>1.1806</v>
       </c>
       <c r="M11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>3.45955</v>
@@ -1178,7 +1820,7 @@
         <v>3.6894</v>
       </c>
       <c r="S11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T11">
         <v>2.41584</v>
@@ -1187,7 +1829,7 @@
         <v>2.6364</v>
       </c>
       <c r="Y11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z11">
         <v>3.14067</v>
@@ -1196,7 +1838,7 @@
         <v>3.3494</v>
       </c>
       <c r="AE11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AF11">
         <v>3.85923</v>
@@ -1205,7 +1847,7 @@
         <v>4.0614</v>
       </c>
       <c r="AK11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL11">
         <v>3.59338</v>
@@ -1214,7 +1856,7 @@
         <v>3.7847</v>
       </c>
       <c r="AQ11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AR11">
         <v>4.33675</v>
@@ -1223,7 +1865,7 @@
         <v>4.569</v>
       </c>
       <c r="AW11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AX11">
         <v>6.66435</v>
@@ -1232,7 +1874,7 @@
         <v>6.8387</v>
       </c>
       <c r="BC11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BD11">
         <v>6.72695</v>
@@ -1243,7 +1885,7 @@
     </row>
     <row r="12" spans="7:57">
       <c r="G12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>0.84863</v>
@@ -1252,7 +1894,7 @@
         <v>1.0871</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1.42158</v>
@@ -1261,7 +1903,7 @@
         <v>1.6516</v>
       </c>
       <c r="S12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T12">
         <v>2.5206</v>
@@ -1270,7 +1912,7 @@
         <v>2.7343</v>
       </c>
       <c r="Y12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z12">
         <v>4.60939</v>
@@ -1279,7 +1921,7 @@
         <v>4.8176</v>
       </c>
       <c r="AE12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AF12">
         <v>5.02652</v>
@@ -1288,7 +1930,7 @@
         <v>5.2217</v>
       </c>
       <c r="AK12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AL12">
         <v>7.2222</v>
@@ -1297,7 +1939,7 @@
         <v>7.4566</v>
       </c>
       <c r="AQ12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AR12">
         <v>8.22575</v>
@@ -1306,7 +1948,7 @@
         <v>8.4595</v>
       </c>
       <c r="AW12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AX12">
         <v>13.967</v>
@@ -1315,7 +1957,7 @@
         <v>14.135</v>
       </c>
       <c r="BC12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BD12">
         <v>7.00272</v>
@@ -1326,7 +1968,7 @@
     </row>
     <row r="13" spans="7:57">
       <c r="G13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>0.61228</v>
@@ -1335,7 +1977,7 @@
         <v>0.8521</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>27.04388</v>
@@ -1344,7 +1986,7 @@
         <v>27.271</v>
       </c>
       <c r="S13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T13">
         <v>2.13172</v>
@@ -1353,7 +1995,7 @@
         <v>2.3528</v>
       </c>
       <c r="Y13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Z13">
         <v>3.66132</v>
@@ -1362,7 +2004,7 @@
         <v>3.8696</v>
       </c>
       <c r="AE13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF13">
         <v>4.64012</v>
@@ -1371,7 +2013,7 @@
         <v>4.8417</v>
       </c>
       <c r="AK13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AL13">
         <v>5.25908</v>
@@ -1380,16 +2022,16 @@
         <v>5.452</v>
       </c>
       <c r="AQ13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AR13">
         <v>8.84454</v>
       </c>
       <c r="AS13">
-        <v>9.081899999999999</v>
+        <v>9.0819</v>
       </c>
       <c r="AW13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AX13">
         <v>5.32095</v>
@@ -1398,7 +2040,7 @@
         <v>5.4956</v>
       </c>
       <c r="BC13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BD13">
         <v>9.06631</v>
@@ -1409,7 +2051,7 @@
     </row>
     <row r="14" spans="7:57">
       <c r="G14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>0.54598</v>
@@ -1418,7 +2060,7 @@
         <v>0.7854</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1.07216</v>
@@ -1427,7 +2069,7 @@
         <v>1.3024</v>
       </c>
       <c r="S14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="T14">
         <v>1.50507</v>
@@ -1436,7 +2078,7 @@
         <v>1.7272</v>
       </c>
       <c r="Y14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Z14">
         <v>3.63203</v>
@@ -1445,7 +2087,7 @@
         <v>3.8423</v>
       </c>
       <c r="AE14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AF14">
         <v>4.12962</v>
@@ -1454,7 +2096,7 @@
         <v>4.3305</v>
       </c>
       <c r="AK14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AL14">
         <v>5.94066</v>
@@ -1463,7 +2105,7 @@
         <v>6.1311</v>
       </c>
       <c r="AQ14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AR14">
         <v>3.98137</v>
@@ -1472,7 +2114,7 @@
         <v>4.2136</v>
       </c>
       <c r="AW14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AX14">
         <v>4.35858</v>
@@ -1481,18 +2123,18 @@
         <v>4.5322</v>
       </c>
       <c r="BC14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BD14">
         <v>7.96625</v>
       </c>
       <c r="BE14">
-        <v>8.184900000000001</v>
+        <v>8.1849</v>
       </c>
     </row>
     <row r="15" spans="7:57">
       <c r="G15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15">
         <v>0.47377</v>
@@ -1501,7 +2143,7 @@
         <v>0.7159</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1.42722</v>
@@ -1510,7 +2152,7 @@
         <v>1.6578</v>
       </c>
       <c r="S15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="T15">
         <v>2.92105</v>
@@ -1519,7 +2161,7 @@
         <v>3.1431</v>
       </c>
       <c r="Y15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Z15">
         <v>1.85885</v>
@@ -1528,7 +2170,7 @@
         <v>2.071</v>
       </c>
       <c r="AE15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF15">
         <v>2.39998</v>
@@ -1537,7 +2179,7 @@
         <v>2.6028</v>
       </c>
       <c r="AK15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AL15">
         <v>2.87878</v>
@@ -1546,7 +2188,7 @@
         <v>3.0713</v>
       </c>
       <c r="AQ15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AR15">
         <v>6.2861</v>
@@ -1555,7 +2197,7 @@
         <v>6.5227</v>
       </c>
       <c r="AW15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AX15">
         <v>4.04822</v>
@@ -1564,7 +2206,7 @@
         <v>4.2221</v>
       </c>
       <c r="BC15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BD15">
         <v>6.44031</v>
@@ -1575,7 +2217,7 @@
     </row>
     <row r="16" spans="7:57">
       <c r="G16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>0.51598</v>
@@ -1584,7 +2226,7 @@
         <v>0.7554</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1.10789</v>
@@ -1593,7 +2235,7 @@
         <v>1.3379</v>
       </c>
       <c r="S16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T16">
         <v>2.17782</v>
@@ -1602,7 +2244,7 @@
         <v>2.3983</v>
       </c>
       <c r="Y16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Z16">
         <v>1.81007</v>
@@ -1611,7 +2253,7 @@
         <v>2.0177</v>
       </c>
       <c r="AE16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AF16">
         <v>3.22053</v>
@@ -1620,7 +2262,7 @@
         <v>3.422</v>
       </c>
       <c r="AK16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AL16">
         <v>3.06903</v>
@@ -1629,7 +2271,7 @@
         <v>3.2633</v>
       </c>
       <c r="AQ16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AR16">
         <v>3.1181</v>
@@ -1638,7 +2280,7 @@
         <v>3.3541</v>
       </c>
       <c r="AW16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AX16">
         <v>3.58625</v>
@@ -1647,18 +2289,18 @@
         <v>3.7594</v>
       </c>
       <c r="BC16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BD16">
         <v>7.89899</v>
       </c>
       <c r="BE16">
-        <v>8.129099999999999</v>
+        <v>8.1291</v>
       </c>
     </row>
     <row r="17" spans="7:57">
       <c r="G17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H17">
         <v>0.37093</v>
@@ -1667,7 +2309,7 @@
         <v>0.6103</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1.17022</v>
@@ -1676,7 +2318,7 @@
         <v>1.3993</v>
       </c>
       <c r="S17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="T17">
         <v>1.03145</v>
@@ -1685,7 +2327,7 @@
         <v>1.2498</v>
       </c>
       <c r="Y17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Z17">
         <v>1.70406</v>
@@ -1694,7 +2336,7 @@
         <v>1.9151</v>
       </c>
       <c r="AE17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AF17">
         <v>2.43693</v>
@@ -1703,7 +2345,7 @@
         <v>2.6415</v>
       </c>
       <c r="AK17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AL17">
         <v>2.8194</v>
@@ -1712,7 +2354,7 @@
         <v>3.0043</v>
       </c>
       <c r="AQ17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AR17">
         <v>2.97031</v>
@@ -1721,7 +2363,7 @@
         <v>3.2054</v>
       </c>
       <c r="AW17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AX17">
         <v>5.68953</v>
@@ -1730,7 +2372,7 @@
         <v>5.8622</v>
       </c>
       <c r="BC17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BD17">
         <v>3.85747</v>
@@ -1741,7 +2383,7 @@
     </row>
     <row r="18" spans="7:57">
       <c r="G18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H18">
         <v>0.6854</v>
@@ -1750,7 +2392,7 @@
         <v>0.9251</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>4.7084</v>
@@ -1759,7 +2401,7 @@
         <v>4.9377</v>
       </c>
       <c r="S18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="T18">
         <v>2.5719</v>
@@ -1768,7 +2410,7 @@
         <v>2.7925</v>
       </c>
       <c r="Y18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Z18">
         <v>4.094</v>
@@ -1777,7 +2419,7 @@
         <v>4.304</v>
       </c>
       <c r="AE18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AF18">
         <v>4.3312</v>
@@ -1786,7 +2428,7 @@
         <v>4.5306</v>
       </c>
       <c r="AK18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AL18">
         <v>6.3845</v>
@@ -1795,7 +2437,7 @@
         <v>6.5796</v>
       </c>
       <c r="AQ18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AR18">
         <v>6.7231</v>
@@ -1804,7 +2446,7 @@
         <v>6.9584</v>
       </c>
       <c r="AW18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AX18">
         <v>7.8644</v>
@@ -1813,7 +2455,7 @@
         <v>8.0406</v>
       </c>
       <c r="BC18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BD18">
         <v>7.9479</v>
@@ -1822,623 +2464,693 @@
         <v>8.1586</v>
       </c>
     </row>
-    <row r="19" spans="7:57">
+    <row r="19" spans="7:56">
       <c r="G19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H19">
         <v>7.1298</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>2.7819</v>
       </c>
       <c r="S19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="T19">
         <v>1.6672</v>
       </c>
       <c r="Y19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Z19">
         <v>1.6007</v>
       </c>
       <c r="AE19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AF19">
         <v>1.5519</v>
       </c>
       <c r="AK19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AL19">
         <v>1.5552</v>
       </c>
       <c r="AQ19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AR19">
         <v>1.558</v>
       </c>
       <c r="AW19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AX19">
         <v>1.5533</v>
       </c>
       <c r="BC19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BD19">
         <v>1.5549</v>
       </c>
     </row>
-    <row r="20" spans="7:57">
+    <row r="20" spans="7:56">
       <c r="G20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>0.2999</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>0.0663</v>
       </c>
       <c r="S20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="T20">
         <v>0.0439</v>
       </c>
       <c r="Y20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Z20">
         <v>0.0452</v>
       </c>
       <c r="AE20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AF20">
         <v>0.0441</v>
       </c>
       <c r="AK20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AL20">
         <v>0.0445</v>
       </c>
       <c r="AQ20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AR20">
         <v>0.0435</v>
       </c>
       <c r="AW20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AX20">
         <v>0.0454</v>
       </c>
       <c r="BC20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="BD20">
         <v>0.0445</v>
       </c>
     </row>
-    <row r="21" spans="7:57">
+    <row r="21" spans="7:56">
       <c r="G21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>63.9808</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>33.573</v>
       </c>
       <c r="S21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="T21">
         <v>28.9542</v>
       </c>
       <c r="Y21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z21">
         <v>29.2342</v>
       </c>
       <c r="AE21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF21">
         <v>28.6162</v>
       </c>
       <c r="AK21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL21">
         <v>28.5732</v>
       </c>
       <c r="AQ21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR21">
         <v>28.2473</v>
       </c>
       <c r="AW21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AX21">
         <v>29.3457</v>
       </c>
       <c r="BC21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BD21">
         <v>28.7957</v>
       </c>
     </row>
-    <row r="22" spans="7:57">
+    <row r="22" spans="7:56">
       <c r="G22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>7.4297</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>2.8482</v>
       </c>
       <c r="S22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="T22">
         <v>1.7111</v>
       </c>
       <c r="Y22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Z22">
         <v>1.6459</v>
       </c>
       <c r="AE22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AF22">
         <v>1.596</v>
       </c>
       <c r="AK22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AL22">
         <v>1.5997</v>
       </c>
       <c r="AQ22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AR22">
         <v>1.6015</v>
       </c>
       <c r="AW22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AX22">
         <v>1.5987</v>
       </c>
       <c r="BC22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BD22">
         <v>1.5994</v>
       </c>
     </row>
-    <row r="23" spans="7:57">
+    <row r="23" spans="7:56">
       <c r="G23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>71.11060000000001</v>
+        <v>71.1106</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>36.3549</v>
       </c>
       <c r="S23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T23">
         <v>30.6214</v>
       </c>
       <c r="Y23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Z23">
         <v>30.8349</v>
       </c>
       <c r="AE23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AF23">
         <v>30.1681</v>
       </c>
       <c r="AK23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AL23">
         <v>30.1284</v>
       </c>
       <c r="AQ23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AR23">
         <v>29.8053</v>
       </c>
       <c r="AW23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AX23">
         <v>30.899</v>
       </c>
       <c r="BC23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="BD23">
         <v>30.3506</v>
       </c>
     </row>
-    <row r="24" spans="7:57">
+    <row r="24" spans="7:56">
       <c r="G24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>71.4105</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>36.4212</v>
       </c>
       <c r="S24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T24">
         <v>30.6653</v>
       </c>
       <c r="Y24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z24">
         <v>30.8801</v>
       </c>
       <c r="AE24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AF24">
         <v>30.2122</v>
       </c>
       <c r="AK24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL24">
         <v>30.1729</v>
       </c>
       <c r="AQ24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AR24">
         <v>29.8488</v>
       </c>
       <c r="AW24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AX24">
         <v>30.9444</v>
       </c>
       <c r="BC24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="BD24">
         <v>30.3951</v>
       </c>
     </row>
-    <row r="25" spans="7:57">
+    <row r="25" spans="7:56">
       <c r="G25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>2317.9111</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>2345.6328</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T25">
         <v>2339.9012</v>
       </c>
       <c r="Y25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Z25">
         <v>2337.8279</v>
       </c>
       <c r="AE25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AF25">
         <v>2337.851</v>
       </c>
       <c r="AK25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AL25">
         <v>2337.8841</v>
       </c>
       <c r="AQ25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AR25">
         <v>2337.8888</v>
       </c>
       <c r="AW25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AX25">
         <v>2337.8881</v>
       </c>
       <c r="BC25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="BD25">
         <v>2337.8866</v>
       </c>
     </row>
-    <row r="26" spans="7:57">
+    <row r="26" spans="7:56">
       <c r="G26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>2317.9111</v>
       </c>
       <c r="M26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>2345.6328</v>
       </c>
       <c r="S26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="T26">
         <v>2339.9012</v>
       </c>
       <c r="Y26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z26">
         <v>2337.8279</v>
       </c>
       <c r="AE26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF26">
         <v>2337.851</v>
       </c>
       <c r="AK26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL26">
         <v>2337.8841</v>
       </c>
       <c r="AQ26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR26">
         <v>2337.8888</v>
       </c>
       <c r="AW26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AX26">
         <v>2337.8881</v>
       </c>
       <c r="BC26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BD26">
         <v>2337.8866</v>
       </c>
     </row>
-    <row r="27" spans="7:57">
+    <row r="27" spans="7:56">
       <c r="G27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>4.7827</v>
       </c>
       <c r="M27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>4.6922</v>
       </c>
       <c r="S27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T27">
         <v>4.7112</v>
       </c>
       <c r="Y27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Z27">
         <v>4.718</v>
       </c>
       <c r="AE27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AF27">
         <v>4.7179</v>
       </c>
       <c r="AK27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AL27">
         <v>4.7178</v>
       </c>
       <c r="AQ27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AR27">
         <v>4.7178</v>
       </c>
       <c r="AW27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AX27">
         <v>4.7178</v>
       </c>
       <c r="BC27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="BD27">
         <v>4.7178</v>
       </c>
     </row>
-    <row r="28" spans="7:57">
+    <row r="28" spans="7:56">
       <c r="G28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>-0.0619</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>-0.0136</v>
       </c>
       <c r="S28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T28">
         <v>-0.0203</v>
       </c>
       <c r="Y28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Z28">
         <v>-0.0164</v>
       </c>
       <c r="AE28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AF28">
         <v>-0.0393</v>
       </c>
       <c r="AK28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AL28">
         <v>-0.0379</v>
       </c>
       <c r="AQ28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AR28">
         <v>-0.0421</v>
       </c>
       <c r="AW28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AX28">
         <v>-0.0402</v>
       </c>
       <c r="BC28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="BD28">
         <v>-0.0405</v>
       </c>
     </row>
-    <row r="29" spans="7:57">
+    <row r="29" spans="7:56">
       <c r="G29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>0.7971</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>0.7984</v>
       </c>
       <c r="S29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T29">
         <v>0.7991</v>
       </c>
       <c r="Y29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Z29">
         <v>0.7992</v>
       </c>
       <c r="AE29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF29">
         <v>0.7992</v>
       </c>
       <c r="AK29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AL29">
         <v>0.7992</v>
       </c>
       <c r="AQ29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AR29">
         <v>0.7992</v>
       </c>
       <c r="AW29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AX29">
         <v>0.7992</v>
       </c>
       <c r="BC29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BD29">
         <v>0.7992</v>
+      </c>
+    </row>
+    <row r="32" spans="40:48">
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>4</v>
+      </c>
+      <c r="AQ32">
+        <v>5</v>
+      </c>
+      <c r="AR32">
+        <v>6</v>
+      </c>
+      <c r="AS32">
+        <v>7</v>
+      </c>
+      <c r="AT32">
+        <v>8</v>
+      </c>
+      <c r="AU32">
+        <v>9</v>
+      </c>
+      <c r="AV32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="40:48">
+      <c r="AN33">
+        <v>0.6854</v>
+      </c>
+      <c r="AO33">
+        <v>4.7084</v>
+      </c>
+      <c r="AP33">
+        <v>2.5719</v>
+      </c>
+      <c r="AQ33">
+        <v>4.094</v>
+      </c>
+      <c r="AR33">
+        <v>4.3312</v>
+      </c>
+      <c r="AS33">
+        <v>6.3845</v>
+      </c>
+      <c r="AT33">
+        <v>6.7231</v>
+      </c>
+      <c r="AU33">
+        <v>7.8644</v>
+      </c>
+      <c r="AV33">
+        <v>7.9479</v>
+      </c>
+    </row>
+    <row r="34" spans="43:43">
+      <c r="AQ34">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="35" spans="43:43">
+      <c r="AQ35">
+        <f>AQ33/AQ34</f>
+        <v>1.22208955223881</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>